--- a/CoastSat_Web/OHIGGINS/chi0356/chi0356_transects.xlsx
+++ b/CoastSat_Web/OHIGGINS/chi0356/chi0356_transects.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,10 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TransectId</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SiteId</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Orientation</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Slope</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>geometry</t>
         </is>
@@ -473,20 +453,6 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>335</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.03918 -34.428279, -72.040901 -34.42497)</t>
         </is>
       </c>
@@ -499,20 +465,6 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>335</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.038182 -34.427923, -72.039903 -34.424613)</t>
         </is>
       </c>
@@ -525,20 +477,6 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>328.1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.036952 -34.42747, -72.039136 -34.424353)</t>
         </is>
       </c>
@@ -551,20 +489,6 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>319.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.035812 -34.426772, -72.038554 -34.423975)</t>
         </is>
       </c>
@@ -577,20 +501,6 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>313.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.54</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.034842 -34.426067, -72.037887 -34.423494)</t>
         </is>
       </c>
@@ -603,20 +513,6 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>306.7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.91</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.033935 -34.425239, -72.037343 -34.422999)</t>
         </is>
       </c>
@@ -629,20 +525,6 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>301.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-1.03</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.033195 -34.424355, -72.036849 -34.4224)</t>
         </is>
       </c>
@@ -655,20 +537,6 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>295.9</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.032536 -34.423445, -72.036388 -34.421772)</t>
         </is>
       </c>
@@ -681,20 +549,6 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.93</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.032033 -34.422527, -72.035998 -34.421047)</t>
         </is>
       </c>
@@ -707,20 +561,6 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.71</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.031587 -34.421706, -72.035552 -34.420226)</t>
         </is>
       </c>
@@ -733,20 +573,6 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>291.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.031124 -34.420854, -72.035121 -34.419434)</t>
         </is>
       </c>
@@ -759,20 +585,6 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>289.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.030686 -34.419963, -72.03474 -34.418658)</t>
         </is>
       </c>
@@ -785,20 +597,6 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.030296 -34.41909, -72.034375 -34.41784)</t>
         </is>
       </c>
@@ -811,20 +609,6 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.029919 -34.418245, -72.033998 -34.416995)</t>
         </is>
       </c>
@@ -837,20 +621,6 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.029542 -34.4174, -72.033621 -34.41615)</t>
         </is>
       </c>
@@ -863,20 +633,6 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>285.4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.47</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.029126 -34.416461, -72.033282 -34.4154)</t>
         </is>
       </c>
@@ -889,20 +645,6 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>280</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.028815 -34.415426, -72.033073 -34.414693)</t>
         </is>
       </c>
@@ -915,20 +657,6 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.41</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.028619 -34.41447, -72.032908 -34.413872)</t>
         </is>
       </c>
@@ -941,20 +669,6 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.028439 -34.413581, -72.032727 -34.412983)</t>
         </is>
       </c>
@@ -967,20 +681,6 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>277.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.028257 -34.412684, -72.032549 -34.412104)</t>
         </is>
       </c>
@@ -993,20 +693,6 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>276.4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.028081 -34.411758, -72.032386 -34.411251)</t>
         </is>
       </c>
@@ -1019,20 +705,6 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.02794 -34.410837, -72.032254 -34.410384)</t>
         </is>
       </c>
@@ -1045,20 +717,6 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>275.5</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027803 -34.409943, -72.032117 -34.40949)</t>
         </is>
       </c>
@@ -1071,20 +729,6 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>275.4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027666 -34.409047, -72.031981 -34.408598)</t>
         </is>
       </c>
@@ -1097,20 +741,6 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>274.1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027527 -34.408111, -72.031852 -34.407746)</t>
         </is>
       </c>
@@ -1123,20 +753,6 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027436 -34.407174, -72.03177 -34.406887)</t>
         </is>
       </c>
@@ -1149,20 +765,6 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027349 -34.406276, -72.031684 -34.405989)</t>
         </is>
       </c>
@@ -1175,20 +777,6 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027263 -34.405377, -72.031597 -34.405091)</t>
         </is>
       </c>
@@ -1201,20 +789,6 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>272.8</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027177 -34.404477, -72.031511 -34.404195)</t>
         </is>
       </c>
@@ -1227,20 +801,6 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>272.7</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027093 -34.403577, -72.031428 -34.403299)</t>
         </is>
       </c>
@@ -1253,20 +813,6 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>280.8</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.027054 -34.402929, -72.031299 -34.40215)</t>
         </is>
       </c>
@@ -1279,20 +825,6 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>298.3</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.02692 -34.402623, -72.030683 -34.400818)</t>
         </is>
       </c>
@@ -1305,20 +837,6 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>316.1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.026672 -34.402379, -72.029594 -34.39971)</t>
         </is>
       </c>
@@ -1331,20 +849,6 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>308.6</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.025609 -34.401731, -72.028925 -34.3994)</t>
         </is>
       </c>
@@ -1357,20 +861,6 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>290.4</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.024794 -34.400429, -72.02882 -34.39907)</t>
         </is>
       </c>
@@ -1383,20 +873,6 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>285.5</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.024373 -34.399434, -72.028526 -34.398369)</t>
         </is>
       </c>
@@ -1409,20 +885,6 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>283.4</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.024067 -34.398502, -72.028265 -34.397562)</t>
         </is>
       </c>
@@ -1435,20 +897,6 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>279.9</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.023754 -34.397526, -72.028012 -34.396798)</t>
         </is>
       </c>
@@ -1461,20 +909,6 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>LINESTRING (-72.023562 -34.396417, -72.027896 -34.39613)</t>
         </is>
       </c>
@@ -1486,20 +920,6 @@
         </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>chi0356</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>269.2</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>LINESTRING (-72.023538 -34.395406, -72.027885 -34.395347)</t>
         </is>
